--- a/output/patologia_previa_classes.xlsx
+++ b/output/patologia_previa_classes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -32,202 +32,19 @@
     <t>osteoarticular</t>
   </si>
   <si>
+    <t>psiquiatria</t>
+  </si>
+  <si>
     <t>nenhuma</t>
+  </si>
+  <si>
+    <t>comportamento</t>
   </si>
   <si>
     <t>metabolico</t>
   </si>
   <si>
-    <t>sistemico</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
+    <t>neurologico</t>
   </si>
 </sst>
 </file>
@@ -279,38 +96,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
@@ -322,7 +144,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -339,16 +161,19 @@
       <c r="J2" t="n">
         <v>0.0</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
         <v>1.0</v>
@@ -357,7 +182,7 @@
         <v>1.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -371,13 +196,16 @@
       <c r="J3" t="n">
         <v>0.0</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -403,13 +231,16 @@
       <c r="J4" t="n">
         <v>0.0</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -421,10 +252,10 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -435,22 +266,25 @@
       <c r="J5" t="n">
         <v>0.0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" t="n">
         <v>1.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -467,25 +301,28 @@
       <c r="J6" t="n">
         <v>0.0</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
+      <c r="A7" t="n">
+        <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -499,13 +336,16 @@
       <c r="J7" t="n">
         <v>0.0</v>
       </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="A8" t="n">
+        <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -514,13 +354,13 @@
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -531,13 +371,16 @@
       <c r="J8" t="n">
         <v>0.0</v>
       </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
+      <c r="A9" t="n">
+        <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -563,25 +406,28 @@
       <c r="J9" t="n">
         <v>0.0</v>
       </c>
+      <c r="K9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="A10" t="n">
+        <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" t="n">
         <v>1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -590,18 +436,21 @@
         <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
+      <c r="A11" t="n">
+        <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -622,18 +471,21 @@
         <v>0.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>19</v>
+      <c r="A12" t="n">
+        <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -642,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -659,22 +511,25 @@
       <c r="J12" t="n">
         <v>0.0</v>
       </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
+      <c r="A13" t="n">
+        <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -686,18 +541,21 @@
         <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
+      <c r="A14" t="n">
+        <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -723,13 +581,16 @@
       <c r="J14" t="n">
         <v>0.0</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
+      <c r="A15" t="n">
+        <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -755,25 +616,28 @@
       <c r="J15" t="n">
         <v>0.0</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>23</v>
+      <c r="A16" t="n">
+        <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -782,33 +646,36 @@
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" t="n">
         <v>0.0</v>
       </c>
+      <c r="K16" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>24</v>
+      <c r="A17" t="n">
+        <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
@@ -819,13 +686,16 @@
       <c r="J17" t="n">
         <v>0.0</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
+      <c r="A18" t="n">
+        <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
@@ -851,13 +721,16 @@
       <c r="J18" t="n">
         <v>0.0</v>
       </c>
+      <c r="K18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>26</v>
+      <c r="A19" t="n">
+        <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -866,7 +739,7 @@
         <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -883,25 +756,28 @@
       <c r="J19" t="n">
         <v>0.0</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>27</v>
+      <c r="A20" t="n">
+        <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -913,18 +789,21 @@
         <v>1.0</v>
       </c>
       <c r="J20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>28</v>
+      <c r="A21" t="n">
+        <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21" t="n">
         <v>1.0</v>
@@ -933,7 +812,7 @@
         <v>1.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -942,27 +821,30 @@
         <v>0.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" t="n">
         <v>0.0</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>29</v>
+      <c r="A22" t="n">
+        <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -974,21 +856,24 @@
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>30</v>
+      <c r="A23" t="n">
+        <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23" t="n">
         <v>1.0</v>
@@ -997,7 +882,7 @@
         <v>1.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -1006,18 +891,21 @@
         <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>31</v>
+      <c r="A24" t="n">
+        <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
@@ -1032,7 +920,7 @@
         <v>0.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
@@ -1043,13 +931,16 @@
       <c r="J24" t="n">
         <v>0.0</v>
       </c>
+      <c r="K24" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>32</v>
+      <c r="A25" t="n">
+        <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
@@ -1075,25 +966,28 @@
       <c r="J25" t="n">
         <v>0.0</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>33</v>
+      <c r="A26" t="n">
+        <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -1102,18 +996,21 @@
         <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" t="n">
         <v>0.0</v>
       </c>
+      <c r="K26" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>34</v>
+      <c r="A27" t="n">
+        <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -1128,7 +1025,7 @@
         <v>0.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
@@ -1139,13 +1036,16 @@
       <c r="J27" t="n">
         <v>0.0</v>
       </c>
+      <c r="K27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>35</v>
+      <c r="A28" t="n">
+        <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="C28" t="n">
         <v>0.0</v>
@@ -1171,19 +1071,22 @@
       <c r="J28" t="n">
         <v>0.0</v>
       </c>
+      <c r="K28" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>36</v>
+      <c r="A29" t="n">
+        <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
@@ -1203,13 +1106,16 @@
       <c r="J29" t="n">
         <v>0.0</v>
       </c>
+      <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>37</v>
+      <c r="A30" t="n">
+        <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
@@ -1235,13 +1141,16 @@
       <c r="J30" t="n">
         <v>0.0</v>
       </c>
+      <c r="K30" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>38</v>
+      <c r="A31" t="n">
+        <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
@@ -1267,19 +1176,22 @@
       <c r="J31" t="n">
         <v>0.0</v>
       </c>
+      <c r="K31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>39</v>
+      <c r="A32" t="n">
+        <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E32" t="n">
         <v>0.0</v>
@@ -1294,27 +1206,30 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>40</v>
+      <c r="A33" t="n">
+        <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -1331,13 +1246,16 @@
       <c r="J33" t="n">
         <v>0.0</v>
       </c>
+      <c r="K33" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>41</v>
+      <c r="A34" t="n">
+        <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="C34" t="n">
         <v>0.0</v>
@@ -1363,13 +1281,16 @@
       <c r="J34" t="n">
         <v>0.0</v>
       </c>
+      <c r="K34" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>42</v>
+      <c r="A35" t="n">
+        <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="C35" t="n">
         <v>0.0</v>
@@ -1395,13 +1316,16 @@
       <c r="J35" t="n">
         <v>0.0</v>
       </c>
+      <c r="K35" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>43</v>
+      <c r="A36" t="n">
+        <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="C36" t="n">
         <v>0.0</v>
@@ -1422,18 +1346,21 @@
         <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>44</v>
+      <c r="A37" t="n">
+        <v>36.0</v>
       </c>
       <c r="B37" t="n">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="C37" t="n">
         <v>0.0</v>
@@ -1454,21 +1381,24 @@
         <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>45</v>
+      <c r="A38" t="n">
+        <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
@@ -1477,7 +1407,7 @@
         <v>1.0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G38" t="n">
         <v>0.0</v>
@@ -1491,16 +1421,19 @@
       <c r="J38" t="n">
         <v>0.0</v>
       </c>
+      <c r="K38" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>46</v>
+      <c r="A39" t="n">
+        <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D39" t="n">
         <v>1.0</v>
@@ -1509,7 +1442,7 @@
         <v>1.0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n">
         <v>0.0</v>
@@ -1518,18 +1451,21 @@
         <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>47</v>
+      <c r="A40" t="n">
+        <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="C40" t="n">
         <v>0.0</v>
@@ -1550,18 +1486,21 @@
         <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>48</v>
+      <c r="A41" t="n">
+        <v>40.0</v>
       </c>
       <c r="B41" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n">
         <v>0.0</v>
@@ -1587,13 +1526,16 @@
       <c r="J41" t="n">
         <v>0.0</v>
       </c>
+      <c r="K41" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>49</v>
+      <c r="A42" t="n">
+        <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" t="n">
         <v>0.0</v>
@@ -1619,25 +1561,28 @@
       <c r="J42" t="n">
         <v>0.0</v>
       </c>
+      <c r="K42" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>50</v>
+      <c r="A43" t="n">
+        <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
@@ -1646,18 +1591,21 @@
         <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>51</v>
+      <c r="A44" t="n">
+        <v>43.0</v>
       </c>
       <c r="B44" t="n">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="C44" t="n">
         <v>0.0</v>
@@ -1672,7 +1620,7 @@
         <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
@@ -1683,13 +1631,16 @@
       <c r="J44" t="n">
         <v>0.0</v>
       </c>
+      <c r="K44" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>52</v>
+      <c r="A45" t="n">
+        <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n">
         <v>0.0</v>
@@ -1715,13 +1666,16 @@
       <c r="J45" t="n">
         <v>0.0</v>
       </c>
+      <c r="K45" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>53</v>
+      <c r="A46" t="n">
+        <v>45.0</v>
       </c>
       <c r="B46" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="C46" t="n">
         <v>0.0</v>
@@ -1747,13 +1701,16 @@
       <c r="J46" t="n">
         <v>0.0</v>
       </c>
+      <c r="K46" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>54</v>
+      <c r="A47" t="n">
+        <v>46.0</v>
       </c>
       <c r="B47" t="n">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="C47" t="n">
         <v>0.0</v>
@@ -1774,18 +1731,21 @@
         <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>55</v>
+      <c r="A48" t="n">
+        <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>47.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="n">
         <v>1.0</v>
@@ -1797,7 +1757,7 @@
         <v>1.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
@@ -1811,22 +1771,25 @@
       <c r="J48" t="n">
         <v>0.0</v>
       </c>
+      <c r="K48" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>56</v>
+      <c r="A49" t="n">
+        <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>48.0</v>
+        <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D49" t="n">
         <v>1.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -1843,13 +1806,16 @@
       <c r="J49" t="n">
         <v>0.0</v>
       </c>
+      <c r="K49" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>57</v>
+      <c r="A50" t="n">
+        <v>49.0</v>
       </c>
       <c r="B50" t="n">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="C50" t="n">
         <v>0.0</v>
@@ -1870,24 +1836,27 @@
         <v>0.0</v>
       </c>
       <c r="I50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>58</v>
+      <c r="A51" t="n">
+        <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>50.0</v>
+        <v>1.0</v>
       </c>
       <c r="C51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E51" t="n">
         <v>1.0</v>
@@ -1896,7 +1865,7 @@
         <v>1.0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H51" t="n">
         <v>0.0</v>
@@ -1907,13 +1876,16 @@
       <c r="J51" t="n">
         <v>0.0</v>
       </c>
+      <c r="K51" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="s">
-        <v>59</v>
+      <c r="A52" t="n">
+        <v>51.0</v>
       </c>
       <c r="B52" t="n">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="C52" t="n">
         <v>0.0</v>
@@ -1934,33 +1906,36 @@
         <v>0.0</v>
       </c>
       <c r="I52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K52" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s">
-        <v>60</v>
+      <c r="A53" t="n">
+        <v>52.0</v>
       </c>
       <c r="B53" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="C53" t="n">
         <v>0.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H53" t="n">
         <v>0.0</v>
@@ -1971,13 +1946,16 @@
       <c r="J53" t="n">
         <v>0.0</v>
       </c>
+      <c r="K53" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="s">
-        <v>61</v>
+      <c r="A54" t="n">
+        <v>53.0</v>
       </c>
       <c r="B54" t="n">
-        <v>53.0</v>
+        <v>0.0</v>
       </c>
       <c r="C54" t="n">
         <v>0.0</v>
@@ -2003,13 +1981,16 @@
       <c r="J54" t="n">
         <v>0.0</v>
       </c>
+      <c r="K54" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="s">
-        <v>62</v>
+      <c r="A55" t="n">
+        <v>54.0</v>
       </c>
       <c r="B55" t="n">
-        <v>54.0</v>
+        <v>0.0</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -2035,13 +2016,16 @@
       <c r="J55" t="n">
         <v>0.0</v>
       </c>
+      <c r="K55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="s">
-        <v>63</v>
+      <c r="A56" t="n">
+        <v>55.0</v>
       </c>
       <c r="B56" t="n">
-        <v>55.0</v>
+        <v>0.0</v>
       </c>
       <c r="C56" t="n">
         <v>0.0</v>
@@ -2067,13 +2051,16 @@
       <c r="J56" t="n">
         <v>0.0</v>
       </c>
+      <c r="K56" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="s">
-        <v>64</v>
+      <c r="A57" t="n">
+        <v>56.0</v>
       </c>
       <c r="B57" t="n">
-        <v>56.0</v>
+        <v>0.0</v>
       </c>
       <c r="C57" t="n">
         <v>0.0</v>
@@ -2099,28 +2086,31 @@
       <c r="J57" t="n">
         <v>0.0</v>
       </c>
+      <c r="K57" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="s">
-        <v>65</v>
+      <c r="A58" t="n">
+        <v>57.0</v>
       </c>
       <c r="B58" t="n">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="C58" t="n">
         <v>0.0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H58" t="n">
         <v>0.0</v>
@@ -2131,16 +2121,19 @@
       <c r="J58" t="n">
         <v>0.0</v>
       </c>
+      <c r="K58" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="s">
-        <v>66</v>
+      <c r="A59" t="n">
+        <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>58.0</v>
+        <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D59" t="n">
         <v>1.0</v>
@@ -2149,7 +2142,7 @@
         <v>1.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="n">
         <v>0.0</v>
@@ -2158,18 +2151,21 @@
         <v>0.0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K59" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
-        <v>67</v>
+      <c r="A60" t="n">
+        <v>59.0</v>
       </c>
       <c r="B60" t="n">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
       <c r="C60" t="n">
         <v>0.0</v>
@@ -2195,13 +2191,16 @@
       <c r="J60" t="n">
         <v>0.0</v>
       </c>
+      <c r="K60" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="s">
-        <v>68</v>
+      <c r="A61" t="n">
+        <v>60.0</v>
       </c>
       <c r="B61" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="C61" t="n">
         <v>0.0</v>
@@ -2227,13 +2226,16 @@
       <c r="J61" t="n">
         <v>0.0</v>
       </c>
+      <c r="K61" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
-        <v>69</v>
+      <c r="A62" t="n">
+        <v>61.0</v>
       </c>
       <c r="B62" t="n">
-        <v>61.0</v>
+        <v>0.0</v>
       </c>
       <c r="C62" t="n">
         <v>0.0</v>
@@ -2254,18 +2256,21 @@
         <v>0.0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s">
-        <v>70</v>
+      <c r="A63" t="n">
+        <v>62.0</v>
       </c>
       <c r="B63" t="n">
-        <v>62.0</v>
+        <v>0.0</v>
       </c>
       <c r="C63" t="n">
         <v>0.0</v>
@@ -2291,25 +2296,28 @@
       <c r="J63" t="n">
         <v>0.0</v>
       </c>
+      <c r="K63" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>71</v>
+      <c r="A64" t="n">
+        <v>63.0</v>
       </c>
       <c r="B64" t="n">
-        <v>63.0</v>
+        <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G64" t="n">
         <v>0.0</v>
@@ -2318,9 +2326,12 @@
         <v>0.0</v>
       </c>
       <c r="I64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K64" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/output/patologia_previa_classes.xlsx
+++ b/output/patologia_previa_classes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>neurologico</t>
+  </si>
+  <si>
+    <t>nefrologico</t>
+  </si>
+  <si>
+    <t>hepatico</t>
+  </si>
+  <si>
+    <t>infecto_contagiosas</t>
+  </si>
+  <si>
+    <t>neoplasia</t>
   </si>
 </sst>
 </file>
@@ -129,6 +141,18 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -162,6 +186,18 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -199,6 +235,18 @@
       <c r="K3" t="n">
         <v>0.0</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -234,6 +282,18 @@
       <c r="K4" t="n">
         <v>0.0</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -269,6 +329,18 @@
       <c r="K5" t="n">
         <v>0.0</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -304,6 +376,18 @@
       <c r="K6" t="n">
         <v>0.0</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -339,6 +423,18 @@
       <c r="K7" t="n">
         <v>0.0</v>
       </c>
+      <c r="L7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -374,6 +470,18 @@
       <c r="K8" t="n">
         <v>0.0</v>
       </c>
+      <c r="L8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -409,6 +517,18 @@
       <c r="K9" t="n">
         <v>0.0</v>
       </c>
+      <c r="L9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -444,6 +564,18 @@
       <c r="K10" t="n">
         <v>0.0</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -479,6 +611,18 @@
       <c r="K11" t="n">
         <v>0.0</v>
       </c>
+      <c r="L11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -514,6 +658,18 @@
       <c r="K12" t="n">
         <v>0.0</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -549,6 +705,18 @@
       <c r="K13" t="n">
         <v>0.0</v>
       </c>
+      <c r="L13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -584,6 +752,18 @@
       <c r="K14" t="n">
         <v>0.0</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -619,6 +799,18 @@
       <c r="K15" t="n">
         <v>0.0</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -654,6 +846,18 @@
       <c r="K16" t="n">
         <v>1.0</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -689,6 +893,18 @@
       <c r="K17" t="n">
         <v>0.0</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -724,6 +940,18 @@
       <c r="K18" t="n">
         <v>0.0</v>
       </c>
+      <c r="L18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -759,6 +987,18 @@
       <c r="K19" t="n">
         <v>0.0</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -794,6 +1034,18 @@
       <c r="K20" t="n">
         <v>0.0</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -829,6 +1081,18 @@
       <c r="K21" t="n">
         <v>0.0</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -864,6 +1128,18 @@
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -899,6 +1175,18 @@
       <c r="K23" t="n">
         <v>0.0</v>
       </c>
+      <c r="L23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -934,6 +1222,18 @@
       <c r="K24" t="n">
         <v>0.0</v>
       </c>
+      <c r="L24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -969,6 +1269,18 @@
       <c r="K25" t="n">
         <v>0.0</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1004,6 +1316,18 @@
       <c r="K26" t="n">
         <v>0.0</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1039,6 +1363,18 @@
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1074,6 +1410,18 @@
       <c r="K28" t="n">
         <v>0.0</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1083,7 +1431,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D29" t="n">
         <v>0.0</v>
@@ -1107,6 +1455,18 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O29" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1144,6 +1504,18 @@
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1179,6 +1551,18 @@
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
+      <c r="L31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1214,6 +1598,18 @@
       <c r="K32" t="n">
         <v>0.0</v>
       </c>
+      <c r="L32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1249,6 +1645,18 @@
       <c r="K33" t="n">
         <v>0.0</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1282,6 +1690,18 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O34" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1319,6 +1739,18 @@
       <c r="K35" t="n">
         <v>0.0</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1354,6 +1786,18 @@
       <c r="K36" t="n">
         <v>0.0</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1363,7 +1807,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D37" t="n">
         <v>0.0</v>
@@ -1387,6 +1831,18 @@
         <v>1.0</v>
       </c>
       <c r="K37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O37" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1424,6 +1880,18 @@
       <c r="K38" t="n">
         <v>0.0</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1459,6 +1927,18 @@
       <c r="K39" t="n">
         <v>0.0</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1474,7 +1954,7 @@
         <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -1492,6 +1972,18 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O40" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1529,6 +2021,18 @@
       <c r="K41" t="n">
         <v>0.0</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1538,7 +2042,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D42" t="n">
         <v>0.0</v>
@@ -1562,6 +2066,18 @@
         <v>0.0</v>
       </c>
       <c r="K42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O42" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1599,6 +2115,18 @@
       <c r="K43" t="n">
         <v>0.0</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1634,6 +2162,18 @@
       <c r="K44" t="n">
         <v>0.0</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1669,6 +2209,18 @@
       <c r="K45" t="n">
         <v>0.0</v>
       </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1696,12 +2248,24 @@
         <v>0.0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J46" t="n">
         <v>0.0</v>
       </c>
       <c r="K46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O46" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1731,12 +2295,24 @@
         <v>0.0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O47" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1745,16 +2321,16 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -1773,6 +2349,18 @@
       </c>
       <c r="K48" t="n">
         <v>0.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -1783,10 +2371,10 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n">
         <v>0.0</v>
@@ -1801,12 +2389,24 @@
         <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
       </c>
       <c r="K49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O49" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1821,7 +2421,7 @@
         <v>0.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E50" t="n">
         <v>0.0</v>
@@ -1839,9 +2439,21 @@
         <v>0.0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O50" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1850,7 +2462,7 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C51" t="n">
         <v>0.0</v>
@@ -1862,7 +2474,7 @@
         <v>1.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
@@ -1877,6 +2489,18 @@
         <v>0.0</v>
       </c>
       <c r="K51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O51" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1903,15 +2527,27 @@
         <v>0.0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O52" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1926,19 +2562,19 @@
         <v>0.0</v>
       </c>
       <c r="D53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E53" t="n">
         <v>0.0</v>
       </c>
       <c r="F53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G53" t="n">
         <v>0.0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -1947,6 +2583,18 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O53" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -1984,6 +2632,18 @@
       <c r="K54" t="n">
         <v>0.0</v>
       </c>
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2019,6 +2679,18 @@
       <c r="K55" t="n">
         <v>0.0</v>
       </c>
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2043,15 +2715,27 @@
         <v>0.0</v>
       </c>
       <c r="H56" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O56" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2060,16 +2744,16 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -2078,7 +2762,7 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
@@ -2087,6 +2771,18 @@
         <v>0.0</v>
       </c>
       <c r="K57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O57" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2098,7 +2794,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D58" t="n">
         <v>1.0</v>
@@ -2107,7 +2803,7 @@
         <v>0.0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G58" t="n">
         <v>0.0</v>
@@ -2122,6 +2818,18 @@
         <v>0.0</v>
       </c>
       <c r="K58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O58" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2133,13 +2841,13 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F59" t="n">
         <v>0.0</v>
@@ -2157,6 +2865,18 @@
         <v>1.0</v>
       </c>
       <c r="K59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O59" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2165,25 +2885,25 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C60" t="n">
         <v>0.0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G60" t="n">
         <v>0.0</v>
       </c>
       <c r="H60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
@@ -2192,6 +2912,18 @@
         <v>0.0</v>
       </c>
       <c r="K60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O60" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2218,15 +2950,27 @@
         <v>0.0</v>
       </c>
       <c r="H61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I61" t="n">
         <v>0.0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O61" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2241,13 +2985,13 @@
         <v>0.0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G62" t="n">
         <v>0.0</v>
@@ -2256,12 +3000,24 @@
         <v>0.0</v>
       </c>
       <c r="I62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J62" t="n">
         <v>0.0</v>
       </c>
       <c r="K62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O62" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2299,6 +3055,18 @@
       <c r="K63" t="n">
         <v>0.0</v>
       </c>
+      <c r="L63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2308,13 +3076,13 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D64" t="n">
         <v>0.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" t="n">
         <v>0.0</v>
@@ -2323,15 +3091,450 @@
         <v>0.0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I64" t="n">
         <v>0.0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O73" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/output/patologia_previa_classes.xlsx
+++ b/output/patologia_previa_classes.xlsx
@@ -2715,13 +2715,13 @@
         <v>0.0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K56" t="n">
         <v>0.0</v>
@@ -2744,16 +2744,16 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D57" t="n">
         <v>1.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -2794,7 +2794,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D58" t="n">
         <v>1.0</v>
@@ -2853,7 +2853,7 @@
         <v>0.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H59" t="n">
         <v>0.0</v>
@@ -2862,7 +2862,7 @@
         <v>0.0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K59" t="n">
         <v>0.0</v>
@@ -2885,19 +2885,19 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D60" t="n">
         <v>1.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G60" t="n">
         <v>0.0</v>
@@ -2909,10 +2909,10 @@
         <v>0.0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -2950,13 +2950,13 @@
         <v>0.0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I61" t="n">
         <v>0.0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K61" t="n">
         <v>0.0</v>
@@ -2988,10 +2988,10 @@
         <v>1.0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G62" t="n">
         <v>0.0</v>
@@ -3003,7 +3003,7 @@
         <v>0.0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K62" t="n">
         <v>0.0</v>
@@ -3088,10 +3088,10 @@
         <v>0.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I64" t="n">
         <v>0.0</v>
@@ -3123,7 +3123,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D65" t="n">
         <v>0.0</v>
@@ -3138,7 +3138,7 @@
         <v>0.0</v>
       </c>
       <c r="H65" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I65" t="n">
         <v>0.0</v>
@@ -3173,7 +3173,7 @@
         <v>0.0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E66" t="n">
         <v>0.0</v>
@@ -3185,7 +3185,7 @@
         <v>0.0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I66" t="n">
         <v>0.0</v>
@@ -3197,7 +3197,7 @@
         <v>0.0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M66" t="n">
         <v>0.0</v>
@@ -3226,7 +3226,7 @@
         <v>0.0</v>
       </c>
       <c r="F67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G67" t="n">
         <v>0.0</v>
@@ -3238,13 +3238,13 @@
         <v>0.0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K67" t="n">
         <v>0.0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M67" t="n">
         <v>0.0</v>
@@ -3264,13 +3264,13 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D68" t="n">
         <v>1.0</v>
       </c>
       <c r="E68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -3285,7 +3285,7 @@
         <v>0.0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K68" t="n">
         <v>0.0</v>
@@ -3326,10 +3326,10 @@
         <v>0.0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J69" t="n">
         <v>0.0</v>
@@ -3358,7 +3358,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D70" t="n">
         <v>0.0</v>
@@ -3373,10 +3373,10 @@
         <v>0.0</v>
       </c>
       <c r="H70" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J70" t="n">
         <v>0.0</v>
@@ -3420,10 +3420,10 @@
         <v>0.0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J71" t="n">
         <v>0.0</v>
@@ -3467,13 +3467,13 @@
         <v>0.0</v>
       </c>
       <c r="H72" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I72" t="n">
         <v>0.0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K72" t="n">
         <v>0.0</v>
@@ -3496,13 +3496,13 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C73" t="n">
         <v>1.0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E73" t="n">
         <v>1.0</v>
@@ -3520,7 +3520,7 @@
         <v>0.0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K73" t="n">
         <v>0.0</v>
@@ -3535,6 +3535,758 @@
         <v>0.0</v>
       </c>
       <c r="O73" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O89" t="n">
         <v>0.0</v>
       </c>
     </row>
